--- a/Excelsheet/Excel_Acuity.xlsx
+++ b/Excelsheet/Excel_Acuity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>aqibm@grr.la</t>
   </si>
@@ -155,15 +155,6 @@
     <t>Password@123</t>
   </si>
   <si>
-    <t>heg1</t>
-  </si>
-  <si>
-    <t>Firsth</t>
-  </si>
-  <si>
-    <t>lasth</t>
-  </si>
-  <si>
     <t>sj7@grr.la</t>
   </si>
   <si>
@@ -173,15 +164,9 @@
     <t>Add new ASP</t>
   </si>
   <si>
-    <t>Asp1</t>
-  </si>
-  <si>
     <t>phno</t>
   </si>
   <si>
-    <t>asp60@grr.la</t>
-  </si>
-  <si>
     <t>Add building information</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>Edit building information</t>
   </si>
   <si>
-    <t>Boston12</t>
-  </si>
-  <si>
     <t>lobby3</t>
   </si>
   <si>
@@ -326,19 +308,40 @@
     <t>pickup datetime4</t>
   </si>
   <si>
-    <t>10/16/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>10/17/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>10/18/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>10/19/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>10/20/2018  3:09:00 AM</t>
+    <t>Asp2</t>
+  </si>
+  <si>
+    <t>asp62@grr.la</t>
+  </si>
+  <si>
+    <t>Boston06</t>
+  </si>
+  <si>
+    <t>Acuity@123</t>
+  </si>
+  <si>
+    <t>11/02/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>11/03/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>11/04/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>11/05/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>11/06/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>heger1</t>
+  </si>
+  <si>
+    <t>Firsthw</t>
+  </si>
+  <si>
+    <t>lasthw</t>
   </si>
 </sst>
 </file>
@@ -775,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,12 +806,12 @@
       <c r="B1" s="15"/>
       <c r="C1" s="1"/>
       <c r="D1" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="1"/>
@@ -883,12 +886,12 @@
         <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -910,12 +913,12 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="F10" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -930,45 +933,45 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2">
         <v>1111111111</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2">
         <v>1211111111</v>
@@ -976,21 +979,21 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="H16" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -999,46 +1002,50 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1051,40 +1058,40 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2">
         <v>1111111111</v>
@@ -1096,16 +1103,16 @@
         <v>3</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J24" s="10"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1115,7 +1122,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
@@ -1124,67 +1131,67 @@
         <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="F35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1217,12 @@
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="C12" r:id="rId7"/>
     <hyperlink ref="H18" r:id="rId8"/>
-    <hyperlink ref="N3" r:id="rId9"/>
+    <hyperlink ref="I18" r:id="rId9"/>
+    <hyperlink ref="J18" r:id="rId10"/>
+    <hyperlink ref="N3" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1312,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1375,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1378,13 +1387,13 @@
         <v>19420</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2">
         <v>1414141414</v>
